--- a/Holiday Pivot.xlsx
+++ b/Holiday Pivot.xlsx
@@ -1,38 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\Top Mentor\Top Mentor Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2BF8FB-62B2-4FCC-8167-1520D015A4B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505EF470-4595-471B-8969-ED949CD29921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{D717163A-8F49-4F4D-B6ED-6CD86391A67B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D717163A-8F49-4F4D-B6ED-6CD86391A67B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="R+T+P" sheetId="2" r:id="rId2"/>
-    <sheet name="R+T+P Pivot" sheetId="5" r:id="rId3"/>
-    <sheet name="R+P" sheetId="4" r:id="rId4"/>
-    <sheet name="R+P Pivot" sheetId="6" r:id="rId5"/>
-    <sheet name="C+T+P" sheetId="7" r:id="rId6"/>
-    <sheet name="C+T+P Pivot" sheetId="8" r:id="rId7"/>
-    <sheet name="N+P Group Avg" sheetId="9" r:id="rId8"/>
-    <sheet name="R+N Group Count" sheetId="10" r:id="rId9"/>
+    <sheet name="Avg Price of Holidays" sheetId="11" r:id="rId2"/>
+    <sheet name="Resort Wise Price" sheetId="13" r:id="rId3"/>
+    <sheet name="Country &amp; Travel" sheetId="14" r:id="rId4"/>
+    <sheet name="Count of Holidays" sheetId="15" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'R+T+P'!$A$2:$A$29</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'R+T+P'!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'R+T+P'!$C$2:$C$29</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId10"/>
-    <pivotCache cacheId="10" r:id="rId11"/>
-    <pivotCache cacheId="14" r:id="rId12"/>
+    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="14" r:id="rId7"/>
+    <pivotCache cacheId="18" r:id="rId8"/>
+    <pivotCache cacheId="22" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="71">
   <si>
     <t>Country</t>
   </si>
@@ -246,118 +238,16 @@
     <t>Sum of Price</t>
   </si>
   <si>
-    <t>(All)</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>32 Average</t>
+    <t>Average of Price</t>
   </si>
   <si>
-    <t>28 Average</t>
-  </si>
-  <si>
-    <t>21 Average</t>
-  </si>
-  <si>
-    <t>3 Average</t>
-  </si>
-  <si>
-    <t>1 Average</t>
-  </si>
-  <si>
-    <t>14 Average</t>
-  </si>
-  <si>
-    <t>5 Average</t>
-  </si>
-  <si>
-    <t>7 Average</t>
-  </si>
-  <si>
-    <t>4 Average</t>
-  </si>
-  <si>
-    <t>6 Average</t>
-  </si>
-  <si>
-    <t>16 Average</t>
-  </si>
-  <si>
-    <t>10 Average</t>
-  </si>
-  <si>
-    <t>8 Average</t>
-  </si>
-  <si>
-    <t>Grand Average</t>
-  </si>
-  <si>
-    <t>Great Barrier Reef Total</t>
-  </si>
-  <si>
-    <t>Perth Total</t>
-  </si>
-  <si>
-    <t>Santiago Total</t>
-  </si>
-  <si>
-    <t>London Total</t>
-  </si>
-  <si>
-    <t>Bognor Total</t>
-  </si>
-  <si>
-    <t>Lyon Total</t>
-  </si>
-  <si>
-    <t>Paris - Euro Disney Total</t>
-  </si>
-  <si>
-    <t>Nice Total</t>
-  </si>
-  <si>
-    <t>Toulouse Total</t>
-  </si>
-  <si>
-    <t>Nimes Total</t>
-  </si>
-  <si>
-    <t>Black Forest Total</t>
-  </si>
-  <si>
-    <t>Berlin Total</t>
-  </si>
-  <si>
-    <t>Lima Total</t>
-  </si>
-  <si>
-    <t>Riyadh Total</t>
-  </si>
-  <si>
-    <t>Barcelona Total</t>
-  </si>
-  <si>
-    <t>Nerja Total</t>
-  </si>
-  <si>
-    <t>Malaga Total</t>
-  </si>
-  <si>
-    <t>Seville Total</t>
-  </si>
-  <si>
-    <t>Madrid Total</t>
-  </si>
-  <si>
-    <t>Granada Total</t>
-  </si>
-  <si>
-    <t>Port of Spain Total</t>
+    <t>Count of No of Days</t>
   </si>
 </sst>
 </file>
@@ -367,16 +257,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -435,19 +317,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -457,19 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -502,38 +369,12 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Holiday Pivot.xlsx]Avg Price of Holidays!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Scatter</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Chart of R+T+P</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -564,348 +405,865 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12192825896762904"/>
-          <c:y val="0.16708333333333336"/>
-          <c:w val="0.59139063867016628"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R+T+P'!$C$1</c:f>
+              <c:f>'Avg Price of Holidays'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Price</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'R+T+P'!$A$2:$B$29</c:f>
+              <c:f>'Avg Price of Holidays'!$F$6:$F$33</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Plane</c:v>
+                    <c:v>Barcelona</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Plane</c:v>
+                    <c:v>Berlin</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Plane</c:v>
+                    <c:v>Black Forest</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Train</c:v>
+                    <c:v>Bognor</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Coach</c:v>
+                    <c:v>Barcelona</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Plane</c:v>
+                    <c:v>Granada</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Train</c:v>
+                    <c:v>Great Barrier Reef</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Train</c:v>
+                    <c:v>Lima</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Plane</c:v>
+                    <c:v>Lyon</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Train</c:v>
+                    <c:v>Madrid</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Plane</c:v>
+                    <c:v>Malaga</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Coach</c:v>
+                    <c:v>Nerja</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Coach</c:v>
+                    <c:v>Nice</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Plane</c:v>
+                    <c:v>Nimes</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Plane</c:v>
+                    <c:v>Perth</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Train</c:v>
+                    <c:v>Port of Spain</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Plane</c:v>
+                    <c:v>Riyadh</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Coach</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>Train</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Train</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Great Barrier Reef</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Perth</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
                     <c:v>Santiago</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>London</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Bognor</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Lyon</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Paris - Euro Disney</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Paris - Euro Disney</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Nice</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Toulouse</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Nimes</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Black Forest</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Berlin</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Lima</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Riyadh</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Barcelona</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Nerja</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Malaga</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>Seville</c:v>
                   </c:pt>
                   <c:pt idx="19">
+                    <c:v>Barcelona</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>London</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Paris - Euro Disney</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
                     <c:v>Seville</c:v>
                   </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Barcelona</c:v>
+                  <c:pt idx="23">
+                    <c:v>Toulouse</c:v>
                   </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Barcelona</c:v>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Coach</c:v>
                   </c:pt>
-                  <c:pt idx="22">
-                    <c:v>Malaga</c:v>
+                  <c:pt idx="4">
+                    <c:v>Plane</c:v>
                   </c:pt>
-                  <c:pt idx="23">
-                    <c:v>Barcelona</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Seville</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Madrid</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>Granada</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>Port of Spain</c:v>
+                  <c:pt idx="19">
+                    <c:v>Train</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'R+T+P'!$C$2:$C$29</c:f>
+              <c:f>'Avg Price of Holidays'!$G$6:$G$33</c:f>
               <c:numCache>
-                <c:formatCode>"£"#,##0;[Red]\-"£"#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1259</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>399</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>289</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>256</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>287</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>975</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>995</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>199</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>177</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>199</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>301</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>885</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E74-48E1-B47C-002A87018ED3}"/>
+              <c16:uniqueId val="{00000001-9FB4-4E45-83D6-5E53427D6A87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -917,16 +1275,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="552326632"/>
-        <c:axId val="552325320"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="552326632"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="455295880"/>
+        <c:axId val="444602144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="455295880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -935,8 +1296,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -963,31 +1324,42 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552325320"/>
+        <c:crossAx val="444602144"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="552325320"/>
+        <c:axId val="444602144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1011,9 +1383,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552326632"/>
+        <c:crossAx val="455295880"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1095,6 +1467,22 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1112,7 +1500,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Holiday Pivot.xlsx]R+T+P Pivot!PivotTable1</c:name>
+    <c:name>[Holiday Pivot.xlsx]Resort Wise Price!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1216,7 +1604,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R+T+P Pivot'!$B$1</c:f>
+              <c:f>'Resort Wise Price'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1235,121 +1623,85 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'R+T+P Pivot'!$A$2:$A$29</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="24"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Barcelona</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Berlin</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Black Forest</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Bognor</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Barcelona</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Granada</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Great Barrier Reef</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Lima</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Lyon</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Madrid</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Malaga</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Nerja</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Nice</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Nimes</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Perth</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Port of Spain</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Riyadh</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Santiago</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Seville</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Barcelona</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>London</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Paris - Euro Disney</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>Seville</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>Toulouse</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Coach</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Train</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'Resort Wise Price'!$D$4:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Barcelona</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Berlin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Black Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bognor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Granada</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Great Barrier Reef</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Lima</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>London</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lyon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Madrid</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Malaga</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nerja</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Nice</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Nimes</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Paris - Euro Disney</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Perth</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Port of Spain</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Riyadh</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Seville</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Toulouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R+T+P Pivot'!$B$2:$B$29</c:f>
+              <c:f>'Resort Wise Price'!$E$4:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>199</c:v>
+                  <c:v>814</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>289</c:v>
@@ -1361,16 +1713,16 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>345</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>750</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>975</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>399</c:v>
@@ -1391,33 +1743,24 @@
                   <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>985</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>885</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>995</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1259</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>487</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>438</c:v>
+                  <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
@@ -1425,7 +1768,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4625-4000-AA34-4F7E95641D91}"/>
+              <c16:uniqueId val="{00000001-62CE-4B58-BD0B-D16614D9F6AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1439,11 +1782,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="256169296"/>
-        <c:axId val="256169624"/>
+        <c:axId val="549809136"/>
+        <c:axId val="455294240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256169296"/>
+        <c:axId val="549809136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256169624"/>
+        <c:crossAx val="455294240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1494,7 +1837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256169624"/>
+        <c:axId val="455294240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256169296"/>
+        <c:crossAx val="549809136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,7 +2005,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Holiday Pivot.xlsx]R+P Pivot!PivotTable2</c:name>
+    <c:name>[Holiday Pivot.xlsx]Country &amp; Travel!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1754,6 +2097,174 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1766,7 +2277,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R+P Pivot'!$B$3</c:f>
+              <c:f>'Country &amp; Travel'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1786,151 +2297,116 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'R+P Pivot'!$A$4:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Berlin</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Black Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Bognor</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Granada</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Great Barrier Reef</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Lima</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>London</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lyon</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Madrid</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Malaga</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Nerja</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Nice</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Nimes</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Paris - Euro Disney</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Perth</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Port of Spain</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Riyadh</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Seville</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Toulouse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Country &amp; Travel'!$E$4:$E$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="13"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>England</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Australia</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Chile</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Peru</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Saudi Arabia</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Trinidad</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>England</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Coach</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Plane</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Train</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R+P Pivot'!$B$4:$B$25</c:f>
+              <c:f>'Country &amp; Travel'!$F$4:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>814</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>289</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>1735</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>345</c:v>
+                  <c:v>1259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>750</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>535</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>198</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1259</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>786</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>256</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-46B0-45E1-BC46-D63F761C70BD}"/>
+              <c16:uniqueId val="{00000001-53A4-4AC1-92A3-D5B65DC12ADF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1944,11 +2420,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="476861296"/>
-        <c:axId val="476861624"/>
+        <c:axId val="560524096"/>
+        <c:axId val="560521800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476861296"/>
+        <c:axId val="560524096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +2467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476861624"/>
+        <c:crossAx val="560521800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1999,7 +2475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476861624"/>
+        <c:axId val="560521800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476861296"/>
+        <c:crossAx val="560524096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2167,49 +2643,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Holiday Pivot.xlsx]C+T+P Pivot!PivotTable3</c:name>
+    <c:name>[Holiday Pivot.xlsx]Count of Holidays!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Country</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> and Travel wise price</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31080187807947901"/>
-          <c:y val="0.10072978682542731"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2309,7 +2747,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C+T+P Pivot'!$B$1</c:f>
+              <c:f>'Count of Holidays'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2329,134 +2767,151 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'C+T+P Pivot'!$A$2:$A$24</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="13"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Coach</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Train</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Train</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Coach</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Coach</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Train</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Australia</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Chile</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>England</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Germany</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Peru</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Saudi Arabia</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Spain</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Trinidad</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'Count of Holidays'!$D$4:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Barcelona</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Berlin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Black Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bognor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Granada</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Great Barrier Reef</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Lima</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>London</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lyon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Madrid</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Malaga</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nerja</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Nice</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Nimes</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Paris - Euro Disney</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Perth</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Port of Spain</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Riyadh</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Seville</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Toulouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'C+T+P Pivot'!$B$2:$B$24</c:f>
+              <c:f>'Count of Holidays'!$E$4:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1735</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1259</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>975</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>650</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>358</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>975</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>995</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2019</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>737</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>885</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD0C-499B-AC11-6A9DE701A077}"/>
+              <c16:uniqueId val="{00000001-1AD6-42C9-9B83-068BE1231438}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2470,11 +2925,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="556098136"/>
-        <c:axId val="556097152"/>
+        <c:axId val="561388304"/>
+        <c:axId val="561387976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="556098136"/>
+        <c:axId val="561388304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,7 +2972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556097152"/>
+        <c:crossAx val="561387976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2525,7 +2980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="556097152"/>
+        <c:axId val="561387976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,7 +3031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556098136"/>
+        <c:crossAx val="561388304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2677,59 +3132,6 @@
     </c:ext>
   </c:extLst>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{F2782CE4-FABF-426B-BD2D-AF044DF3DB2B}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>Price</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{271ED67E-F868-448B-8110-3AC6E6987C1E}">
-          <cx:axisId val="2"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2892,48 +3294,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2960,8 +3322,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3062,7 +3424,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3094,10 +3456,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3131,531 +3493,6 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -3726,6 +3563,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3757,8 +3600,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3813,7 +3656,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -3841,30 +3684,22 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3880,7 +3715,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3896,7 +3731,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3910,7 +3745,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3943,7 +3778,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -3952,11 +3787,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4459,7 +4300,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4962,7 +4803,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5469,23 +5310,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25645</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>97447</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>340703</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>173647</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6659E923-5B57-4852-8A74-D6504FC22EDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E18E48-0CF0-4DBC-B459-2286595306D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5503,84 +5344,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161192</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>315058</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>115032</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Chart 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622EF86D-32C1-4CAF-BDEA-F74CC6C001F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4158029" y="3018692"/>
-              <a:ext cx="4429125" cy="2620840"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5588,23 +5351,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62390A5-08E5-4D36-A407-8358DFC039B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD06503-FC43-4C15-8F56-3F8D1C193E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5629,23 +5392,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E1E882-4A81-4925-A165-685054DDB088}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0890CD96-B474-4BB4-B1B6-DEEC4744FDE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5670,23 +5433,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D25728-7DDB-406B-8868-0DF718C71915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184549B8-28FF-4C2C-BFD6-972C50AA86DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5708,9 +5471,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44257.83395162037" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{E956224E-D6FF-4D79-B3B5-6AE92A2464CE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.462237500004" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{0CE98ECD-9DC3-4DC0-B676-23FEA7AEC2DA}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C29" sheet="R+T+P"/>
+    <worksheetSource ref="A1:C29" sheet="Avg Price of Holidays"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Resort Name" numFmtId="0">
@@ -5783,9 +5546,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44257.838320833333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{90B50188-F4C6-41EE-8D94-6DD1398A579A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.466799189817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{E3A8F878-BB35-4BAE-B510-E4330ED1C785}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B29" sheet="R+P"/>
+    <worksheetSource ref="A1:B29" sheet="Resort Wise Price"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Resort Name" numFmtId="0">
@@ -5814,32 +5577,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Price" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="1259" count="24">
-        <n v="750"/>
-        <n v="985"/>
-        <n v="1259"/>
-        <n v="69"/>
-        <n v="12"/>
-        <n v="399"/>
-        <n v="269"/>
-        <n v="125"/>
-        <n v="289"/>
-        <n v="256"/>
-        <n v="287"/>
-        <n v="975"/>
-        <n v="995"/>
-        <n v="219"/>
-        <n v="198"/>
-        <n v="234"/>
-        <n v="288"/>
-        <n v="199"/>
-        <n v="177"/>
-        <n v="301"/>
-        <n v="299"/>
-        <n v="277"/>
-        <n v="345"/>
-        <n v="885"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="1259"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5851,9 +5589,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44257.84386724537" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{70829161-9F33-417B-8447-FB16D0C2F1E6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.468219097223" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{0ECE2C3C-B5B1-4102-9117-8B502B2A5A17}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C29" sheet="C+T+P"/>
+    <worksheetSource ref="A1:C29" sheet="Country &amp; Travel"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Country" numFmtId="0">
@@ -5888,6 +5626,49 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.471199189815" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{5EB60F08-E0A4-443B-9583-36FD14C42B39}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B29" sheet="Count of Holidays"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Resort Name" numFmtId="0">
+      <sharedItems count="21">
+        <s v="Great Barrier Reef"/>
+        <s v="Perth"/>
+        <s v="Santiago"/>
+        <s v="London"/>
+        <s v="Bognor"/>
+        <s v="Lyon"/>
+        <s v="Paris - Euro Disney"/>
+        <s v="Nice"/>
+        <s v="Toulouse"/>
+        <s v="Nimes"/>
+        <s v="Black Forest"/>
+        <s v="Berlin"/>
+        <s v="Lima"/>
+        <s v="Riyadh"/>
+        <s v="Barcelona"/>
+        <s v="Nerja"/>
+        <s v="Malaga"/>
+        <s v="Seville"/>
+        <s v="Madrid"/>
+        <s v="Granada"/>
+        <s v="Port of Spain"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="No of Days" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
   <r>
@@ -6037,115 +5818,115 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <n v="750"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <n v="985"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <n v="1259"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
+    <n v="69"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="4"/>
+    <n v="12"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="5"/>
+    <n v="399"/>
   </r>
   <r>
     <x v="6"/>
+    <n v="269"/>
+  </r>
+  <r>
     <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="125"/>
+  </r>
+  <r>
     <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
+    <n v="289"/>
+  </r>
+  <r>
     <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
+    <n v="256"/>
+  </r>
+  <r>
     <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
+    <n v="287"/>
+  </r>
+  <r>
     <x v="10"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="3"/>
+    <n v="69"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="8"/>
+    <n v="289"/>
   </r>
   <r>
     <x v="12"/>
-    <x v="11"/>
+    <n v="975"/>
   </r>
   <r>
     <x v="13"/>
-    <x v="12"/>
+    <n v="995"/>
   </r>
   <r>
     <x v="14"/>
-    <x v="13"/>
+    <n v="219"/>
   </r>
   <r>
     <x v="15"/>
+    <n v="198"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="234"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="288"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="199"/>
+  </r>
+  <r>
     <x v="14"/>
+    <n v="177"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="199"/>
   </r>
   <r>
     <x v="16"/>
-    <x v="15"/>
+    <n v="301"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="219"/>
   </r>
   <r>
     <x v="17"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="14"/>
+    <n v="299"/>
+  </r>
+  <r>
     <x v="18"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="16"/>
+    <n v="277"/>
+  </r>
+  <r>
     <x v="19"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="17"/>
+    <n v="345"/>
+  </r>
+  <r>
     <x v="20"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="23"/>
+    <n v="885"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -6295,9 +6076,126 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+  <r>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="14"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1153D11-C5AC-4EB6-8E56-C7D90C5C6D7F}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
-  <location ref="A1:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65CB0969-130F-42F7-9A0C-02D9960679C4}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F5:G33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
       <items count="22">
@@ -6333,7 +6231,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="164" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField dataField="1" numFmtId="164" showAll="0">
       <items count="25">
         <item x="4"/>
         <item x="3"/>
@@ -6457,14 +6355,278 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Price" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Average of Price" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="23">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -6483,10 +6645,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37BBD353-B2E1-4D75-81FE-F9C21204876A}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF9FEBA1-2A94-47B2-BB36-E6AD4CB6BD95}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D3:E25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="22">
         <item x="14"/>
         <item x="11"/>
@@ -6512,35 +6674,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" dataField="1" numFmtId="164" showAll="0">
-      <items count="25">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="18"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="22"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -6616,9 +6750,6 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Price" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
@@ -6646,8 +6777,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C192087-0516-401F-AA59-4D792C232D89}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2534AF26-2550-486B-B247-C3AC5432FF9B}" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E3:F20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -6674,60 +6805,24 @@
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
+    <field x="1"/>
     <field x="0"/>
-    <field x="1"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="17">
     <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
       <x/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
       <x v="4"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
       <x v="1"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i r="1">
       <x/>
@@ -6736,13 +6831,31 @@
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="8"/>
+    <i r="1">
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -6753,6 +6866,165 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Price" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3ED60FF-DA9B-45C4-87C8-BFA415C085CC}" name="PivotTable5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D3:E25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="14"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of No of Days" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -7076,12 +7348,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0AA6CF-E872-4B10-9866-C44476A0238F}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
@@ -7090,582 +7363,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>750</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>985</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>1259</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>69</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>399</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>269</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>125</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>289</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>256</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>287</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>69</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>289</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>21</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>975</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>995</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>219</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>198</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>234</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>14</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>288</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>10</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>199</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>177</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>7</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>199</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>14</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>301</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>219</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>14</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>299</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>8</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>277</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>10</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>345</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>14</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>885</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7675,590 +7948,927 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA67BC8-7E25-4A58-A1E2-74987C68FE55}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDC5FB8-584C-41A7-B105-4D8A72179C6C}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="G10" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>985</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>1259</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="F5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4">
+        <v>142.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>399</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>269</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>289</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>256</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>520.17647058823525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>287</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>289</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="F14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>975</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>995</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>219</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>198</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="G18" s="4">
+        <v>267.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>288</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="F20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>199</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="F21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="F23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="4">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>301</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="F24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="4">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>219</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>299</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="F26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="4">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>277</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>345</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="F28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>885</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="4">
+        <v>388.14285714285717</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E27135-7EC6-4C59-97F7-A189ADEE08EB}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9065587D-DFFA-472F-A9BA-7C978FF7CE52}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>985</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1259</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>69</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>399</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>269</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>125</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>289</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>256</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>287</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3">
+        <v>289</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>975</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3">
+        <v>995</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3">
+        <v>219</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3">
+        <v>198</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3">
+        <v>234</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3">
+        <v>288</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3">
+        <v>199</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3">
+        <v>177</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3">
+        <v>199</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="4">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3">
+        <v>301</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3">
+        <v>219</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="6">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="6">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>8843</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="E25" s="4">
+        <v>10868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B28" s="3">
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="6">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="6">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="6">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="6">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B29" s="3">
         <v>885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="6">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="6">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="6">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="6">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="6">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="6">
-        <v>10868</v>
       </c>
     </row>
   </sheetData>
@@ -8268,460 +8878,447 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF96A7D-BFC7-43DB-914F-A0BB5F48582A}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349A2898-6CE5-4484-8FE7-A0AA82CBE171}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
         <v>985</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
         <v>1259</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
         <v>399</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="E7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
         <v>269</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
         <v>289</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
         <v>256</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
         <v>287</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
         <v>289</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
         <v>975</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
         <v>995</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
         <v>219</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
         <v>198</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
         <v>288</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="E20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
         <v>885</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C391B5-3E7D-4B70-8262-3AC2D68D452D}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="6">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="6">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="6">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="6">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="6">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="6">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="6">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="6">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="6">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="6">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="6">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="6">
-        <v>10868</v>
       </c>
     </row>
   </sheetData>
@@ -8730,1644 +9327,392 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4451037-A2CA-4113-A242-2007F8001D41}">
-  <dimension ref="A1:C29"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D327BC-A20B-4A57-9742-DB51F95489DB}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="5">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="5">
-        <v>885</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA0CBFC-E019-4648-9A1F-02AC920F26E2}">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="E25" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="6">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="6">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="6">
-        <v>10868</v>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5046DD24-4542-414B-866D-BE1C4535D8B6}">
-  <dimension ref="A1:D56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
-        <v>32</v>
-      </c>
-      <c r="C2" s="5">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="4">
-        <f>SUBTOTAL(1,B2:B2)</f>
-        <v>32</v>
-      </c>
-      <c r="C3" s="5">
-        <f>SUBTOTAL(1,C2:C2)</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="4">
-        <f>SUBTOTAL(1,B4:B4)</f>
-        <v>28</v>
-      </c>
-      <c r="C5" s="5">
-        <f>SUBTOTAL(1,C4:C4)</f>
-        <v>985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="4">
-        <f>SUBTOTAL(1,B6:B6)</f>
-        <v>21</v>
-      </c>
-      <c r="C7" s="5">
-        <f>SUBTOTAL(1,C6:C6)</f>
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="4">
-        <f>SUBTOTAL(1,B8:B8)</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="5">
-        <f>SUBTOTAL(1,C8:C8)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="4">
-        <f>SUBTOTAL(1,B10:B10)</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <f>SUBTOTAL(1,C10:C10)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="4">
-        <f>SUBTOTAL(1,B12:B12)</f>
-        <v>14</v>
-      </c>
-      <c r="C13" s="5">
-        <f>SUBTOTAL(1,C12:C12)</f>
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="4">
-        <f>SUBTOTAL(1,B14:B14)</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <f>SUBTOTAL(1,C14:C14)</f>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="4">
-        <f>SUBTOTAL(1,B16:B16)</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="5">
-        <f>SUBTOTAL(1,C16:C16)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="4">
-        <f>SUBTOTAL(1,B18:B20)</f>
-        <v>7</v>
-      </c>
-      <c r="C21" s="5">
-        <f>SUBTOTAL(1,C18:C20)</f>
-        <v>277.33333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="4">
-        <f>SUBTOTAL(1,B22:B22)</f>
-        <v>4</v>
-      </c>
-      <c r="C23" s="5">
-        <f>SUBTOTAL(1,C22:C22)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="4">
-        <f>SUBTOTAL(1,B24:B24)</f>
-        <v>7</v>
-      </c>
-      <c r="C25" s="5">
-        <f>SUBTOTAL(1,C24:C24)</f>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>21</v>
-      </c>
-      <c r="C26" s="5">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="4">
-        <f>SUBTOTAL(1,B26:B26)</f>
-        <v>21</v>
-      </c>
-      <c r="C27" s="5">
-        <f>SUBTOTAL(1,C26:C26)</f>
-        <v>975</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="4">
-        <f>SUBTOTAL(1,B28:B28)</f>
-        <v>14</v>
-      </c>
-      <c r="C29" s="5">
-        <f>SUBTOTAL(1,C28:C28)</f>
-        <v>995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="4">
-        <f>SUBTOTAL(1,B30:B30)</f>
-        <v>4</v>
-      </c>
-      <c r="C31" s="5">
-        <f>SUBTOTAL(1,C30:C30)</f>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="4">
-        <f>SUBTOTAL(1,B32:B32)</f>
-        <v>6</v>
-      </c>
-      <c r="C33" s="5">
-        <f>SUBTOTAL(1,C32:C32)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>16</v>
-      </c>
-      <c r="C34" s="5">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="4">
-        <f>SUBTOTAL(1,B34:B34)</f>
-        <v>16</v>
-      </c>
-      <c r="C35" s="5">
-        <f>SUBTOTAL(1,C34:C34)</f>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
-        <v>14</v>
-      </c>
-      <c r="C36" s="5">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="4">
-        <f>SUBTOTAL(1,B36:B36)</f>
-        <v>14</v>
-      </c>
-      <c r="C37" s="5">
-        <f>SUBTOTAL(1,C36:C36)</f>
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>10</v>
-      </c>
-      <c r="C38" s="5">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="4">
-        <f>SUBTOTAL(1,B38:B38)</f>
-        <v>10</v>
-      </c>
-      <c r="C39" s="5">
-        <f>SUBTOTAL(1,C38:C38)</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
-        <v>8</v>
-      </c>
-      <c r="C40" s="5">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="4">
-        <f>SUBTOTAL(1,B40:B40)</f>
-        <v>8</v>
-      </c>
-      <c r="C41" s="5">
-        <f>SUBTOTAL(1,C40:C40)</f>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="4">
-        <f>SUBTOTAL(1,B42:B42)</f>
-        <v>7</v>
-      </c>
-      <c r="C43" s="5">
-        <f>SUBTOTAL(1,C42:C42)</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
-        <v>14</v>
-      </c>
-      <c r="C44" s="5">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="4">
-        <f>SUBTOTAL(1,B44:B44)</f>
-        <v>14</v>
-      </c>
-      <c r="C45" s="5">
-        <f>SUBTOTAL(1,C44:C44)</f>
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="4">
-        <f>SUBTOTAL(1,B46:B46)</f>
-        <v>4</v>
-      </c>
-      <c r="C47" s="5">
-        <f>SUBTOTAL(1,C46:C46)</f>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
-        <v>14</v>
-      </c>
-      <c r="C48" s="5">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="4">
-        <f>SUBTOTAL(1,B48:B48)</f>
-        <v>14</v>
-      </c>
-      <c r="C49" s="5">
-        <f>SUBTOTAL(1,C48:C48)</f>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
-        <v>8</v>
-      </c>
-      <c r="C50" s="5">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="4">
-        <f>SUBTOTAL(1,B50:B50)</f>
-        <v>8</v>
-      </c>
-      <c r="C51" s="5">
-        <f>SUBTOTAL(1,C50:C50)</f>
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
-        <v>10</v>
-      </c>
-      <c r="C52" s="5">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="4">
-        <f>SUBTOTAL(1,B52:B52)</f>
-        <v>10</v>
-      </c>
-      <c r="C53" s="5">
-        <f>SUBTOTAL(1,C52:C52)</f>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
-        <v>14</v>
-      </c>
-      <c r="C54" s="5">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="2" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="11">
-        <f>SUBTOTAL(1,B54:B54)</f>
-        <v>14</v>
-      </c>
-      <c r="C55" s="12">
-        <f>SUBTOTAL(1,C54:C54)</f>
-        <v>885</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="11">
-        <f>SUBTOTAL(1,B2:B54)</f>
-        <v>10.821428571428571</v>
-      </c>
-      <c r="C56" s="12">
-        <f>SUBTOTAL(1,C2:C54)</f>
-        <v>388.14285714285717</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7181C72-4378-4F31-90BD-9F3A62DEBF35}">
-  <dimension ref="A1:B56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="4">
-        <f>SUBTOTAL(9,B2:B2)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="4">
-        <f>SUBTOTAL(9,B4:B4)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="4">
-        <f>SUBTOTAL(9,B6:B6)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="4">
-        <f>SUBTOTAL(9,B8:B8)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="4">
-        <f>SUBTOTAL(9,B10:B10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="4">
-        <f>SUBTOTAL(9,B12:B12)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="4">
-        <f>SUBTOTAL(9,B14:B15)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="4">
-        <f>SUBTOTAL(9,B17:B17)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="4">
-        <f>SUBTOTAL(9,B19:B19)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="4">
-        <f>SUBTOTAL(9,B21:B21)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="4">
-        <f>SUBTOTAL(9,B23:B23)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="4">
-        <f>SUBTOTAL(9,B25:B25)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="4">
-        <f>SUBTOTAL(9,B27:B27)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="4">
-        <f>SUBTOTAL(9,B29:B29)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="4">
-        <f>SUBTOTAL(9,B31:B31)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="4">
-        <f>SUBTOTAL(9,B33:B33)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="4">
-        <f>SUBTOTAL(9,B35:B35)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="4">
-        <f>SUBTOTAL(9,B37:B38)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="4">
-        <f>SUBTOTAL(9,B40:B41)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="4">
-        <f>SUBTOTAL(9,B43:B43)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="4">
-        <f>SUBTOTAL(9,B45:B45)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="4">
-        <f>SUBTOTAL(9,B47:B47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="4">
-        <f>SUBTOTAL(9,B49:B49)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="4">
-        <f>SUBTOTAL(9,B51:B51)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="11">
-        <f>SUBTOTAL(9,B53:B53)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="11">
-        <f>SUBTOTAL(9,B2:B53)</f>
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Holiday Pivot.xlsx
+++ b/Holiday Pivot.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\Top Mentor\Top Mentor Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505EF470-4595-471B-8969-ED949CD29921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C139C5-C121-48AC-8635-A65D940769BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D717163A-8F49-4F4D-B6ED-6CD86391A67B}"/>
+    <workbookView xWindow="690" yWindow="2985" windowWidth="6480" windowHeight="7455" xr2:uid="{D717163A-8F49-4F4D-B6ED-6CD86391A67B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Avg Price of Holidays" sheetId="11" r:id="rId2"/>
-    <sheet name="Resort Wise Price" sheetId="13" r:id="rId3"/>
-    <sheet name="Country &amp; Travel" sheetId="14" r:id="rId4"/>
-    <sheet name="Count of Holidays" sheetId="15" r:id="rId5"/>
+    <sheet name="Travel Method of Plane" sheetId="16" r:id="rId2"/>
+    <sheet name="Resort Name wise Price" sheetId="18" r:id="rId3"/>
+    <sheet name="Country &amp; Travel Method" sheetId="19" r:id="rId4"/>
+    <sheet name="Count of Holidays On Resort" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
-    <pivotCache cacheId="14" r:id="rId7"/>
-    <pivotCache cacheId="18" r:id="rId8"/>
-    <pivotCache cacheId="22" r:id="rId9"/>
+    <pivotCache cacheId="12" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="71">
   <si>
     <t>Country</t>
   </si>
@@ -247,7 +244,7 @@
     <t>Average of Price</t>
   </si>
   <si>
-    <t>Count of No of Days</t>
+    <t>Sum of No of Days</t>
   </si>
 </sst>
 </file>
@@ -370,7 +367,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Holiday Pivot.xlsx]Avg Price of Holidays!PivotTable2</c:name>
+    <c:name>[Holiday Pivot.xlsx]Travel Method of Plane!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1002,60 +999,6 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1068,7 +1011,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Avg Price of Holidays'!$G$5</c:f>
+              <c:f>'Travel Method of Plane'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1088,182 +1031,115 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Avg Price of Holidays'!$F$6:$F$33</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="24"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Barcelona</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Berlin</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Black Forest</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Bognor</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Barcelona</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Granada</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Great Barrier Reef</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Lima</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Lyon</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Madrid</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Malaga</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Nerja</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Nice</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Nimes</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Perth</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Port of Spain</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Riyadh</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Santiago</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Seville</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Barcelona</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>London</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Paris - Euro Disney</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>Seville</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>Toulouse</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Coach</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Train</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'Travel Method of Plane'!$A$4:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Barcelona</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Granada</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Great Barrier Reef</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lima</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lyon</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Madrid</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Malaga</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Nerja</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nice</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nimes</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Perth</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Port of Spain</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Riyadh</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Seville</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Avg Price of Holidays'!$G$6:$G$33</c:f>
+              <c:f>'Travel Method of Plane'!$B$4:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>199</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>289</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>399</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>277</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>267.5</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>198</c:v>
+                  <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>289</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>287</c:v>
+                  <c:v>1259</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1259</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>243.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9FB4-4E45-83D6-5E53427D6A87}"/>
+              <c16:uniqueId val="{00000001-55FE-470B-AC01-BCDCC3B6A8D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1277,11 +1153,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="455295880"/>
-        <c:axId val="444602144"/>
+        <c:axId val="461936472"/>
+        <c:axId val="461939424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455295880"/>
+        <c:axId val="461936472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444602144"/>
+        <c:crossAx val="461939424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1332,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444602144"/>
+        <c:axId val="461939424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455295880"/>
+        <c:crossAx val="461936472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,7 +1376,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Holiday Pivot.xlsx]Resort Wise Price!PivotTable3</c:name>
+    <c:name>[Holiday Pivot.xlsx]Resort Name wise Price!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1538,6 +1414,36 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1548,7 +1454,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1581,8 +1499,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1604,7 +1523,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Resort Wise Price'!$E$3</c:f>
+              <c:f>'Resort Name wise Price'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1623,9 +1542,67 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Resort Wise Price'!$D$4:$D$25</c:f>
+              <c:f>'Resort Name wise Price'!$A$2:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -1696,7 +1673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Resort Wise Price'!$E$4:$E$25</c:f>
+              <c:f>'Resort Name wise Price'!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1768,13 +1745,14 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-62CE-4B58-BD0B-D16614D9F6AE}"/>
+              <c16:uniqueId val="{00000003-225C-4232-8680-44C3DD83C864}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1782,11 +1760,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="549809136"/>
-        <c:axId val="455294240"/>
+        <c:axId val="460504584"/>
+        <c:axId val="460505240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="549809136"/>
+        <c:axId val="460504584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455294240"/>
+        <c:crossAx val="460505240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1837,7 +1815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455294240"/>
+        <c:axId val="460505240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549809136"/>
+        <c:crossAx val="460504584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2005,7 +1983,857 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Holiday Pivot.xlsx]Country &amp; Travel!PivotTable4</c:name>
+    <c:name>[Holiday Pivot.xlsx]Country &amp; Travel Method!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Country &amp; Travel Method'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Country &amp; Travel Method'!$A$4:$A$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="13"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>England</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Australia</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Chile</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Peru</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Saudi Arabia</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Trinidad</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>England</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Coach</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Plane</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Train</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Country &amp; Travel Method'!$B$4:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDF5-41F2-8E74-E72B7BBBCF9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="512400864"/>
+        <c:axId val="512396272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="512400864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512396272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512396272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512400864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Holiday Pivot.xlsx]Count of Holidays On Resort!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2209,62 +3037,6 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2277,7 +3049,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Country &amp; Travel'!$F$3</c:f>
+              <c:f>'Count of Holidays On Resort'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2297,116 +3069,151 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Country &amp; Travel'!$E$4:$E$20</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="13"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>England</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Germany</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Spain</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Australia</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Chile</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Peru</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Saudi Arabia</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Spain</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Trinidad</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>England</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>France</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Spain</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Coach</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Plane</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Train</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'Count of Holidays On Resort'!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Barcelona</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Berlin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Black Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bognor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Granada</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Great Barrier Reef</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Lima</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>London</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lyon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Madrid</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Malaga</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nerja</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Nice</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Nimes</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Paris - Euro Disney</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Perth</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Port of Spain</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Riyadh</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Seville</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Toulouse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Country &amp; Travel'!$F$4:$F$20</c:f>
+              <c:f>'Count of Holidays On Resort'!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>358</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1735</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>975</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>975</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>995</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2019</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>885</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>650</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>737</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-53A4-4AC1-92A3-D5B65DC12ADF}"/>
+              <c16:uniqueId val="{00000003-8648-4CDC-94EE-6A7D707FD27D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2420,11 +3227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="560524096"/>
-        <c:axId val="560521800"/>
+        <c:axId val="461933520"/>
+        <c:axId val="461930896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="560524096"/>
+        <c:axId val="461933520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +3274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560521800"/>
+        <c:crossAx val="461930896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2475,7 +3282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="560521800"/>
+        <c:axId val="461930896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,512 +3333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560524096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Holiday Pivot.xlsx]Count of Holidays!PivotTable5</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Count of Holidays'!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Count of Holidays'!$D$4:$D$25</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>Barcelona</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Berlin</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Black Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Bognor</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Granada</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Great Barrier Reef</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Lima</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>London</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Lyon</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Madrid</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Malaga</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Nerja</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Nice</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Nimes</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Paris - Euro Disney</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Perth</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Port of Spain</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Riyadh</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Santiago</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Seville</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Toulouse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Count of Holidays'!$E$4:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1AD6-42C9-9B83-068BE1231438}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="561388304"/>
-        <c:axId val="561387976"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="561388304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="561387976"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="561387976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="561388304"/>
+        <c:crossAx val="461933520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5310,23 +5612,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E18E48-0CF0-4DBC-B459-2286595306D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909B7A6B-315C-417E-A13C-CA9814B8DB87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5351,23 +5653,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD06503-FC43-4C15-8F56-3F8D1C193E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F7E666-F0A2-44E3-98DD-4C372BF8E458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,23 +5694,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0890CD96-B474-4BB4-B1B6-DEEC4744FDE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE4FD2F-9A0A-4EF2-AA4A-ED3245DB1BEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5433,23 +5735,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184549B8-28FF-4C2C-BFD6-972C50AA86DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BD0A29-E2C2-43F0-BF01-02B240503602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5471,129 +5773,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.462237500004" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{0CE98ECD-9DC3-4DC0-B676-23FEA7AEC2DA}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44272.775147337961" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{85B1489F-0385-4B09-BB50-E9B87D8F81A5}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C29" sheet="Avg Price of Holidays"/>
+    <worksheetSource ref="A1:F29" sheet="Main Sheet"/>
   </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Resort Name" numFmtId="0">
-      <sharedItems count="21">
-        <s v="Great Barrier Reef"/>
-        <s v="Perth"/>
-        <s v="Santiago"/>
-        <s v="London"/>
-        <s v="Bognor"/>
-        <s v="Lyon"/>
-        <s v="Paris - Euro Disney"/>
-        <s v="Nice"/>
-        <s v="Toulouse"/>
-        <s v="Nimes"/>
-        <s v="Black Forest"/>
-        <s v="Berlin"/>
-        <s v="Lima"/>
-        <s v="Riyadh"/>
-        <s v="Barcelona"/>
-        <s v="Nerja"/>
-        <s v="Malaga"/>
-        <s v="Seville"/>
-        <s v="Madrid"/>
-        <s v="Granada"/>
-        <s v="Port of Spain"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Travel Method" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Plane"/>
-        <s v="Train"/>
-        <s v="Coach"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Price" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="1259" count="24">
-        <n v="750"/>
-        <n v="985"/>
-        <n v="1259"/>
-        <n v="69"/>
-        <n v="12"/>
-        <n v="399"/>
-        <n v="269"/>
-        <n v="125"/>
-        <n v="289"/>
-        <n v="256"/>
-        <n v="287"/>
-        <n v="975"/>
-        <n v="995"/>
-        <n v="219"/>
-        <n v="198"/>
-        <n v="234"/>
-        <n v="288"/>
-        <n v="199"/>
-        <n v="177"/>
-        <n v="301"/>
-        <n v="299"/>
-        <n v="277"/>
-        <n v="345"/>
-        <n v="885"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.466799189817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{E3A8F878-BB35-4BAE-B510-E4330ED1C785}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B29" sheet="Resort Wise Price"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="Resort Name" numFmtId="0">
-      <sharedItems count="21">
-        <s v="Great Barrier Reef"/>
-        <s v="Perth"/>
-        <s v="Santiago"/>
-        <s v="London"/>
-        <s v="Bognor"/>
-        <s v="Lyon"/>
-        <s v="Paris - Euro Disney"/>
-        <s v="Nice"/>
-        <s v="Toulouse"/>
-        <s v="Nimes"/>
-        <s v="Black Forest"/>
-        <s v="Berlin"/>
-        <s v="Lima"/>
-        <s v="Riyadh"/>
-        <s v="Barcelona"/>
-        <s v="Nerja"/>
-        <s v="Malaga"/>
-        <s v="Seville"/>
-        <s v="Madrid"/>
-        <s v="Granada"/>
-        <s v="Port of Spain"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Price" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="1259"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.468219097223" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{0ECE2C3C-B5B1-4102-9117-8B502B2A5A17}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C29" sheet="Country &amp; Travel"/>
-  </cacheSource>
-  <cacheFields count="3">
+  <cacheFields count="6">
     <cacheField name="Country" numFmtId="0">
       <sharedItems count="9">
         <s v="Australia"/>
@@ -5607,31 +5791,6 @@
         <s v="Trinidad"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Travel Method" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Plane"/>
-        <s v="Train"/>
-        <s v="Coach"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Price" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="1259"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.471199189815" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{5EB60F08-E0A4-443B-9583-36FD14C42B39}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B29" sheet="Count of Holidays"/>
-  </cacheSource>
-  <cacheFields count="2">
     <cacheField name="Resort Name" numFmtId="0">
       <sharedItems count="21">
         <s v="Great Barrier Reef"/>
@@ -5658,7 +5817,34 @@
       </sharedItems>
     </cacheField>
     <cacheField name="No of Days" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="32" count="13">
+        <n v="32"/>
+        <n v="28"/>
+        <n v="21"/>
+        <n v="3"/>
+        <n v="1"/>
+        <n v="14"/>
+        <n v="5"/>
+        <n v="7"/>
+        <n v="4"/>
+        <n v="6"/>
+        <n v="16"/>
+        <n v="10"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Travel Method" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Plane"/>
+        <s v="Train"/>
+        <s v="Coach"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="1259"/>
+    </cacheField>
+    <cacheField name="Holiday ID" numFmtId="0">
+      <sharedItems/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5675,528 +5861,234 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
+    <n v="750"/>
+    <s v="I990AUS"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="985"/>
+    <s v="AUS112J"/>
   </r>
   <r>
     <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="0"/>
-    <x v="1"/>
+    <n v="1259"/>
+    <s v="CH266H"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="69"/>
+    <s v="I456UK"/>
+  </r>
+  <r>
     <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="12"/>
+    <s v="BG726H"/>
   </r>
   <r>
     <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="399"/>
+    <s v="A7995FR"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="6"/>
     <x v="1"/>
+    <n v="269"/>
+    <s v="TH789FR"/>
+  </r>
+  <r>
     <x v="3"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="125"/>
+    <s v="TH788FR"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="289"/>
+    <s v="I7897FR"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="256"/>
+    <s v="SG7637L"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="287"/>
+    <s v="FR5625J"/>
   </r>
   <r>
     <x v="4"/>
+    <x v="10"/>
+    <x v="8"/>
     <x v="2"/>
+    <n v="69"/>
+    <s v="A111G"/>
+  </r>
+  <r>
     <x v="4"/>
+    <x v="11"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="289"/>
+    <s v="BR6736G"/>
   </r>
   <r>
     <x v="5"/>
+    <x v="12"/>
+    <x v="2"/>
     <x v="0"/>
-    <x v="5"/>
+    <n v="975"/>
+    <s v="PG7836G"/>
   </r>
   <r>
     <x v="6"/>
-    <x v="1"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="7"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="995"/>
+    <s v="KSA8987"/>
   </r>
   <r>
     <x v="7"/>
+    <x v="14"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="219"/>
+    <s v="I6675SP"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="15"/>
+    <x v="9"/>
     <x v="0"/>
+    <n v="198"/>
+    <s v="TH990ESP"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="234"/>
+    <s v="A776ESP"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="288"/>
+    <s v="NM9876Y"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="199"/>
+    <s v="TH8956SP"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="14"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="177"/>
+    <s v="AJ9836L"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="14"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="199"/>
+    <s v="GG9836P"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="301"/>
+    <s v="PL8726P"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="14"/>
     <x v="8"/>
+    <x v="1"/>
+    <n v="219"/>
+    <s v="I6675SP"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="299"/>
+    <s v="SV767HH"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="277"/>
+    <s v="WE6735L"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="345"/>
+    <s v="GR7878G"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="1"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="1"/>
     <x v="20"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="23"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
-  <r>
-    <x v="0"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="985"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1259"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="69"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="399"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="269"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="125"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="289"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="256"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="287"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="69"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="289"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="975"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="995"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="219"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <n v="198"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="234"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="288"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="199"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="177"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="199"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="301"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="219"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="299"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <n v="277"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <n v="345"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <n v="885"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="985"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="1259"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="69"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="399"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="269"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="125"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="289"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="256"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="287"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="69"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <n v="289"/>
-  </r>
-  <r>
     <x v="5"/>
     <x v="0"/>
-    <n v="975"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="995"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="219"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="198"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="234"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="288"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="199"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="177"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <n v="199"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="301"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="219"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="299"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="277"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="345"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
     <n v="885"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
-  <r>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="28"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="21"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="21"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="16"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <n v="14"/>
+    <s v="TT67624G"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65CB0969-130F-42F7-9A0C-02D9960679C4}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="F5:G33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C0AD084-3867-44B1-A2DA-5AE589F477E0}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="22">
         <item x="14"/>
@@ -6223,7 +6115,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
       <items count="4">
         <item x="2"/>
         <item x="0"/>
@@ -6231,121 +6124,57 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0">
-      <items count="25">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="18"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="22"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="1"/>
-    <field x="0"/>
   </rowFields>
-  <rowItems count="28">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
+    <i>
+      <x v="4"/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
       <x v="5"/>
     </i>
-    <i r="1">
+    <i>
       <x v="6"/>
     </i>
-    <i r="1">
+    <i>
       <x v="8"/>
     </i>
-    <i r="1">
+    <i>
       <x v="9"/>
     </i>
-    <i r="1">
+    <i>
       <x v="10"/>
     </i>
-    <i r="1">
+    <i>
       <x v="11"/>
     </i>
-    <i r="1">
+    <i>
       <x v="12"/>
     </i>
-    <i r="1">
+    <i>
       <x v="13"/>
     </i>
-    <i r="1">
+    <i>
       <x v="15"/>
     </i>
-    <i r="1">
+    <i>
       <x v="16"/>
     </i>
-    <i r="1">
+    <i>
       <x v="17"/>
     </i>
-    <i r="1">
+    <i>
       <x v="18"/>
     </i>
-    <i r="1">
+    <i>
       <x v="19"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
     </i>
     <i t="grand">
       <x/>
@@ -6354,10 +6183,13 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="3" item="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Average of Price" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Price" fld="4" subtotal="average" baseField="0" baseItem="100"/>
   </dataFields>
-  <chartFormats count="23">
+  <chartFormats count="21">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6373,7 +6205,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -6385,7 +6217,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -6397,7 +6229,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -6409,7 +6241,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -6421,7 +6253,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="5"/>
           </reference>
         </references>
@@ -6433,7 +6265,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="6"/>
           </reference>
         </references>
@@ -6445,7 +6277,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="7"/>
           </reference>
         </references>
@@ -6457,7 +6289,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="8"/>
           </reference>
         </references>
@@ -6469,7 +6301,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="9"/>
           </reference>
         </references>
@@ -6481,7 +6313,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="10"/>
           </reference>
         </references>
@@ -6493,7 +6325,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="11"/>
           </reference>
         </references>
@@ -6505,7 +6337,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="12"/>
           </reference>
         </references>
@@ -6517,7 +6349,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="13"/>
           </reference>
         </references>
@@ -6529,7 +6361,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="14"/>
           </reference>
         </references>
@@ -6541,7 +6373,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="15"/>
           </reference>
         </references>
@@ -6553,7 +6385,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="16"/>
           </reference>
         </references>
@@ -6565,7 +6397,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="17"/>
           </reference>
         </references>
@@ -6577,7 +6409,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="18"/>
           </reference>
         </references>
@@ -6589,7 +6421,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="19"/>
           </reference>
         </references>
@@ -6601,32 +6433,8 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="0" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="20"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -6645,10 +6453,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF9FEBA1-2A94-47B2-BB36-E6AD4CB6BD95}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D3:E25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A982CB7-9C00-4747-929C-37FCF1C71A23}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="22">
         <item x="14"/>
         <item x="11"/>
@@ -6674,10 +6483,13 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="22">
     <i>
@@ -6751,10 +6563,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Price" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Price" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6777,9 +6589,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2534AF26-2550-486B-B247-C3AC5432FF9B}" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="E3:F20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2F53332-1F36-4E72-BEED-64027B26287F}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="0"/>
@@ -6794,6 +6606,25 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="2"/>
@@ -6803,9 +6634,10 @@
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="2">
-    <field x="1"/>
+    <field x="3"/>
     <field x="0"/>
   </rowFields>
   <rowItems count="17">
@@ -6865,37 +6697,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Price" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Price" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6918,9 +6723,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E3ED60FF-DA9B-45C4-87C8-BFA415C085CC}" name="PivotTable5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D3:E25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD38BE78-7A8E-45F5-95EA-ABC73531D6F0}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="22">
         <item x="14"/>
@@ -6947,10 +6753,30 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="14">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="22">
     <i>
@@ -7024,10 +6850,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of No of Days" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of No of Days" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7348,9 +7174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0AA6CF-E872-4B10-9866-C44476A0238F}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C29"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7948,537 +7772,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDC5FB8-584C-41A7-B105-4D8A72179C6C}">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A902010E-19E5-4811-9BDC-0897AF940B46}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B6" s="4">
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4">
+        <v>267.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B14" s="4">
         <v>985</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B17" s="4">
         <v>1259</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>69</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4">
-        <v>142.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>399</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="4">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3">
-        <v>269</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="4">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3">
-        <v>125</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>289</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
-        <v>256</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4">
         <v>520.17647058823525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>287</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="4">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3">
-        <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="4">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3">
-        <v>289</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3">
-        <v>975</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="4">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>995</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="4">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3">
-        <v>219</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="4">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3">
-        <v>198</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4">
-        <v>267.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3">
-        <v>234</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="4">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3">
-        <v>288</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="4">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3">
-        <v>199</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="4">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3">
-        <v>177</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="4">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3">
-        <v>199</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="4">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3">
-        <v>301</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="4">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="3">
-        <v>219</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="3">
-        <v>299</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="4">
-        <v>243.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
-        <v>277</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="4">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3">
-        <v>345</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="4">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>885</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="4">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="4">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="4">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="4">
-        <v>388.14285714285717</v>
       </c>
     </row>
   </sheetData>
@@ -8488,387 +7955,201 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9065587D-DFFA-472F-A9BA-7C978FF7CE52}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C1BD65-2752-48C2-8951-39FF1828B763}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B7" s="4">
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B17" s="4">
         <v>985</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B20" s="4">
         <v>1259</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="4">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3">
-        <v>69</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3">
-        <v>399</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>269</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="4">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3">
-        <v>125</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3">
-        <v>289</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B22" s="4">
         <v>256</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3">
-        <v>287</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3">
-        <v>69</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="3">
-        <v>289</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3">
-        <v>975</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="4">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3">
-        <v>995</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="3">
-        <v>219</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="4">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="3">
-        <v>198</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="3">
-        <v>234</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="3">
-        <v>288</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="4">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="3">
-        <v>199</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="4">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3">
-        <v>177</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3">
-        <v>199</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="4">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3">
-        <v>301</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="4">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="3">
-        <v>219</v>
-      </c>
-      <c r="D25" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="4">
+      <c r="B23" s="4">
         <v>10868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="3">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="3">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="3">
-        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -8878,447 +8159,169 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349A2898-6CE5-4484-8FE7-A0AA82CBE171}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77618C8-7766-489F-83F5-B47275C2FEBA}">
+  <dimension ref="A3:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>985</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B9" s="4">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B10" s="4">
         <v>1259</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B17" s="4">
         <v>69</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>399</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B18" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="4">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3">
-        <v>269</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>8843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3">
-        <v>125</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>289</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
-        <v>256</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="4">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>287</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3">
-        <v>69</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="4">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3">
-        <v>289</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3">
-        <v>975</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="4">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>995</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3">
-        <v>219</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3">
-        <v>198</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3">
-        <v>234</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="B19" s="4">
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3">
-        <v>288</v>
-      </c>
-      <c r="E20" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="4">
+      <c r="B20" s="4">
         <v>10868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="3">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="3">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -9328,387 +8331,201 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D327BC-A20B-4A57-9742-DB51F95489DB}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F65DAA1-B200-4E66-A552-1EA9972E1FC3}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B7" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B17" s="4">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B20" s="4">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="2">
-        <v>14</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2">
-        <v>8</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2">
-        <v>14</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="2">
-        <v>14</v>
+      <c r="B23" s="4">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
